--- a/sample1.xlsx
+++ b/sample1.xlsx
@@ -358,231 +358,231 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="n">
-        <v>26.09</v>
+        <v>40.96</v>
       </c>
       <c r="B1" t="n">
-        <v>23.89</v>
+        <v>37.32</v>
       </c>
       <c r="C1" t="n">
-        <v>20.39</v>
+        <v>26.23</v>
       </c>
       <c r="D1" t="n">
-        <v>12.94</v>
+        <v>16.66</v>
       </c>
       <c r="E1" t="n">
-        <v>7.84</v>
+        <v>9.350000000000001</v>
       </c>
       <c r="F1" t="n">
-        <v>6.44</v>
+        <v>6.65</v>
       </c>
       <c r="G1" t="n">
-        <v>4.65</v>
+        <v>5.84</v>
       </c>
       <c r="H1" t="n">
-        <v>2.83</v>
+        <v>3.94</v>
       </c>
       <c r="I1" t="n">
-        <v>1.02</v>
+        <v>2.97</v>
       </c>
       <c r="K1" t="n">
-        <v>12.95</v>
+        <v>16.67</v>
       </c>
       <c r="L1" t="n">
         <v>3</v>
       </c>
       <c r="M1" t="n">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="N1" t="n">
-        <v>220.15</v>
+        <v>950.1900000000001</v>
       </c>
       <c r="O1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P1" t="n">
-        <v>220.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" t="n">
-        <v>26.5</v>
+        <v>47.59999999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>21.22</v>
+        <v>38.12</v>
       </c>
       <c r="C2" t="n">
-        <v>15.58</v>
+        <v>23.92</v>
       </c>
       <c r="D2" t="n">
-        <v>13.11</v>
+        <v>16.97</v>
       </c>
       <c r="E2" t="n">
-        <v>8.74</v>
+        <v>7.26</v>
       </c>
       <c r="F2" t="n">
-        <v>6.81</v>
+        <v>5.88</v>
       </c>
       <c r="G2" t="n">
-        <v>5.290000000000001</v>
+        <v>5.26</v>
       </c>
       <c r="H2" t="n">
-        <v>3.48</v>
+        <v>3.71</v>
       </c>
       <c r="I2" t="n">
-        <v>2.43</v>
+        <v>1.77</v>
       </c>
       <c r="K2" t="n">
-        <v>13.12</v>
+        <v>16.98</v>
       </c>
       <c r="L2" t="n">
         <v>3</v>
       </c>
       <c r="M2" t="n">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="N2" t="n">
-        <v>432.96</v>
+        <v>1018.8</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>509.4</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="n">
-        <v>28.6</v>
+        <v>37.8</v>
       </c>
       <c r="B3" t="n">
-        <v>24.55</v>
+        <v>27.95</v>
       </c>
       <c r="C3" t="n">
-        <v>16.09</v>
+        <v>15.73</v>
       </c>
       <c r="D3" t="n">
-        <v>12.86</v>
+        <v>10.75</v>
       </c>
       <c r="E3" t="n">
-        <v>6.88</v>
+        <v>6.7</v>
       </c>
       <c r="F3" t="n">
-        <v>5.33</v>
+        <v>6.03</v>
       </c>
       <c r="G3" t="n">
-        <v>3.78</v>
+        <v>4.24</v>
       </c>
       <c r="H3" t="n">
-        <v>2.94</v>
+        <v>2.58</v>
       </c>
       <c r="I3" t="n">
-        <v>1.87</v>
+        <v>1.65</v>
       </c>
       <c r="K3" t="n">
-        <v>12.87</v>
+        <v>15.74</v>
       </c>
       <c r="L3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M3" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N3" t="n">
-        <v>411.84</v>
+        <v>566.64</v>
       </c>
       <c r="O3" t="n">
         <v>1</v>
       </c>
       <c r="P3" t="n">
-        <v>411.84</v>
+        <v>566.64</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="n">
-        <v>23.17</v>
+        <v>38.94</v>
       </c>
       <c r="B4" t="n">
-        <v>20.65</v>
+        <v>35.47</v>
       </c>
       <c r="C4" t="n">
-        <v>19.16</v>
+        <v>23.9</v>
       </c>
       <c r="D4" t="n">
-        <v>12.55</v>
+        <v>16.19</v>
       </c>
       <c r="E4" t="n">
-        <v>8.390000000000001</v>
+        <v>7.679999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>5.89</v>
+        <v>5.969999999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>3.94</v>
+        <v>4.989999999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>2.85</v>
+        <v>4.27</v>
       </c>
       <c r="I4" t="n">
-        <v>1.17</v>
+        <v>2.73</v>
       </c>
       <c r="K4" t="n">
-        <v>12.56</v>
+        <v>16.2</v>
       </c>
       <c r="L4" t="n">
         <v>3</v>
       </c>
       <c r="M4" t="n">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="N4" t="n">
-        <v>150.72</v>
+        <v>1053</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="n">
-        <v>29.74</v>
+        <v>41.55</v>
       </c>
       <c r="B5" t="n">
-        <v>23.04</v>
+        <v>31.88</v>
       </c>
       <c r="C5" t="n">
-        <v>21.99</v>
+        <v>17.13</v>
       </c>
       <c r="D5" t="n">
-        <v>14.31</v>
+        <v>14.78</v>
       </c>
       <c r="E5" t="n">
-        <v>6.45</v>
+        <v>5.06</v>
       </c>
       <c r="F5" t="n">
-        <v>4.62</v>
+        <v>4.29</v>
       </c>
       <c r="G5" t="n">
-        <v>3.07</v>
+        <v>3.5</v>
       </c>
       <c r="H5" t="n">
-        <v>2.14</v>
+        <v>2.95</v>
       </c>
       <c r="I5" t="n">
-        <v>1.64</v>
+        <v>2.16</v>
       </c>
       <c r="K5" t="n">
-        <v>14.32</v>
+        <v>17.14</v>
       </c>
       <c r="L5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M5" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="N5" t="n">
-        <v>42.96</v>
+        <v>479.9200000000001</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -593,81 +593,81 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="n">
-        <v>29.98</v>
+        <v>37.12</v>
       </c>
       <c r="B6" t="n">
-        <v>22.53</v>
+        <v>34.47</v>
       </c>
       <c r="C6" t="n">
-        <v>19.08</v>
+        <v>22.69</v>
       </c>
       <c r="D6" t="n">
-        <v>14.07</v>
+        <v>13.14</v>
       </c>
       <c r="E6" t="n">
-        <v>9.52</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>6.59</v>
+        <v>6.11</v>
       </c>
       <c r="G6" t="n">
-        <v>4.64</v>
+        <v>4.86</v>
       </c>
       <c r="H6" t="n">
-        <v>3.17</v>
+        <v>3.7</v>
       </c>
       <c r="I6" t="n">
-        <v>1.97</v>
+        <v>1.74</v>
       </c>
       <c r="K6" t="n">
-        <v>14.08</v>
+        <v>13.15</v>
       </c>
       <c r="L6" t="n">
         <v>3</v>
       </c>
       <c r="M6" t="n">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="N6" t="n">
-        <v>872.96</v>
+        <v>696.95</v>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P6" t="n">
-        <v>872.96</v>
+        <v>348.475</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="n">
-        <v>28.27</v>
+        <v>29.22</v>
       </c>
       <c r="B7" t="n">
-        <v>24.94</v>
+        <v>24.25</v>
       </c>
       <c r="C7" t="n">
-        <v>19.19</v>
+        <v>22.94</v>
       </c>
       <c r="D7" t="n">
-        <v>12.74</v>
+        <v>16.2</v>
       </c>
       <c r="E7" t="n">
-        <v>7.779999999999999</v>
+        <v>7.120000000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>5.47</v>
+        <v>4.970000000000001</v>
       </c>
       <c r="G7" t="n">
-        <v>4.93</v>
+        <v>3.8</v>
       </c>
       <c r="H7" t="n">
-        <v>4.16</v>
+        <v>3.03</v>
       </c>
       <c r="I7" t="n">
-        <v>2.99</v>
+        <v>1.85</v>
       </c>
       <c r="K7" t="n">
-        <v>12.75</v>
+        <v>16.21</v>
       </c>
       <c r="L7" t="n">
         <v>3</v>
@@ -676,242 +676,242 @@
         <v>42</v>
       </c>
       <c r="N7" t="n">
-        <v>535.4999999999999</v>
+        <v>680.8200000000002</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>680.8200000000002</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" t="n">
-        <v>34.77</v>
+        <v>34.47</v>
       </c>
       <c r="B8" t="n">
-        <v>29.97</v>
+        <v>26.67</v>
       </c>
       <c r="C8" t="n">
-        <v>20.67</v>
+        <v>17.09</v>
       </c>
       <c r="D8" t="n">
-        <v>15.1</v>
+        <v>11.99</v>
       </c>
       <c r="E8" t="n">
-        <v>8.279999999999999</v>
+        <v>7.56</v>
       </c>
       <c r="F8" t="n">
-        <v>6.789999999999999</v>
+        <v>4.59</v>
       </c>
       <c r="G8" t="n">
-        <v>5.85</v>
+        <v>3.31</v>
       </c>
       <c r="H8" t="n">
-        <v>3.95</v>
+        <v>2.52</v>
       </c>
       <c r="I8" t="n">
-        <v>3</v>
+        <v>1.94</v>
       </c>
       <c r="K8" t="n">
-        <v>8.289999999999999</v>
+        <v>17.1</v>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M8" t="n">
+        <v>68</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1162.8</v>
+      </c>
+      <c r="O8" t="n">
         <v>1</v>
       </c>
-      <c r="N8" t="n">
-        <v>8.289999999999999</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>1162.8</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" t="n">
-        <v>25.73</v>
+        <v>32.12</v>
       </c>
       <c r="B9" t="n">
-        <v>21.51</v>
+        <v>23.11</v>
       </c>
       <c r="C9" t="n">
-        <v>16.99</v>
+        <v>20.71</v>
       </c>
       <c r="D9" t="n">
-        <v>11.02</v>
+        <v>17.9</v>
       </c>
       <c r="E9" t="n">
-        <v>6.949999999999999</v>
+        <v>8.49</v>
       </c>
       <c r="F9" t="n">
-        <v>6.379999999999999</v>
+        <v>6.32</v>
       </c>
       <c r="G9" t="n">
-        <v>5.359999999999999</v>
+        <v>5.77</v>
       </c>
       <c r="H9" t="n">
-        <v>3.63</v>
+        <v>4.41</v>
       </c>
       <c r="I9" t="n">
-        <v>2.16</v>
+        <v>2.97</v>
       </c>
       <c r="K9" t="n">
-        <v>11.03</v>
+        <v>17.91</v>
       </c>
       <c r="L9" t="n">
         <v>3</v>
       </c>
       <c r="M9" t="n">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="N9" t="n">
-        <v>485.32</v>
+        <v>250.74</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>485.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" t="n">
-        <v>28.15</v>
+        <v>29.45</v>
       </c>
       <c r="B10" t="n">
-        <v>25.04</v>
+        <v>27.08</v>
       </c>
       <c r="C10" t="n">
-        <v>17.73</v>
+        <v>19.34</v>
       </c>
       <c r="D10" t="n">
-        <v>13.95</v>
+        <v>12.02</v>
       </c>
       <c r="E10" t="n">
-        <v>8.139999999999999</v>
+        <v>8</v>
       </c>
       <c r="F10" t="n">
-        <v>6.48</v>
+        <v>6.25</v>
       </c>
       <c r="G10" t="n">
-        <v>5.59</v>
+        <v>5.02</v>
       </c>
       <c r="H10" t="n">
-        <v>4.01</v>
+        <v>3.2</v>
       </c>
       <c r="I10" t="n">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="K10" t="n">
-        <v>13.96</v>
+        <v>19.35</v>
       </c>
       <c r="L10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M10" t="n">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="N10" t="n">
-        <v>251.28</v>
+        <v>832.0500000000001</v>
       </c>
       <c r="O10" t="n">
         <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>251.28</v>
+        <v>832.0500000000001</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" t="n">
-        <v>31.95</v>
+        <v>34.32</v>
       </c>
       <c r="B11" t="n">
-        <v>23.14</v>
+        <v>29.28</v>
       </c>
       <c r="C11" t="n">
-        <v>21.27</v>
+        <v>21.81</v>
       </c>
       <c r="D11" t="n">
-        <v>14.16</v>
+        <v>18.59</v>
       </c>
       <c r="E11" t="n">
-        <v>9.18</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="F11" t="n">
-        <v>6.25</v>
+        <v>6.850000000000001</v>
       </c>
       <c r="G11" t="n">
-        <v>4.4</v>
+        <v>5.07</v>
       </c>
       <c r="H11" t="n">
-        <v>3.5</v>
+        <v>3.88</v>
       </c>
       <c r="I11" t="n">
-        <v>2.79</v>
+        <v>2.08</v>
       </c>
       <c r="K11" t="n">
-        <v>14.17</v>
+        <v>18.6</v>
       </c>
       <c r="L11" t="n">
         <v>3</v>
       </c>
       <c r="M11" t="n">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="N11" t="n">
-        <v>906.88</v>
+        <v>985.8000000000001</v>
       </c>
       <c r="O11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P11" t="n">
-        <v>302.2933333333334</v>
+        <v>492.9</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" t="n">
-        <v>37.52</v>
+        <v>29.74</v>
       </c>
       <c r="B12" t="n">
-        <v>28.28</v>
+        <v>25.71</v>
       </c>
       <c r="C12" t="n">
-        <v>24.21</v>
+        <v>23.23</v>
       </c>
       <c r="D12" t="n">
-        <v>16.09</v>
+        <v>14.07</v>
       </c>
       <c r="E12" t="n">
-        <v>6.470000000000001</v>
+        <v>7.67</v>
       </c>
       <c r="F12" t="n">
-        <v>4.91</v>
+        <v>5.69</v>
       </c>
       <c r="G12" t="n">
-        <v>4.28</v>
+        <v>3.74</v>
       </c>
       <c r="H12" t="n">
-        <v>2.65</v>
+        <v>1.93</v>
       </c>
       <c r="I12" t="n">
-        <v>1.56</v>
+        <v>1.34</v>
       </c>
       <c r="K12" t="n">
-        <v>6.48</v>
+        <v>14.08</v>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="N12" t="n">
-        <v>6.48</v>
+        <v>253.44</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -922,43 +922,43 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" t="n">
-        <v>36.96</v>
+        <v>37.4</v>
       </c>
       <c r="B13" t="n">
-        <v>29.08</v>
+        <v>34.3</v>
       </c>
       <c r="C13" t="n">
-        <v>20.99</v>
+        <v>20.08</v>
       </c>
       <c r="D13" t="n">
-        <v>12.61</v>
+        <v>11.82</v>
       </c>
       <c r="E13" t="n">
-        <v>8.34</v>
+        <v>7.199999999999999</v>
       </c>
       <c r="F13" t="n">
-        <v>7.54</v>
+        <v>4.43</v>
       </c>
       <c r="G13" t="n">
-        <v>5.74</v>
+        <v>2.66</v>
       </c>
       <c r="H13" t="n">
-        <v>4.2</v>
+        <v>2.03</v>
       </c>
       <c r="I13" t="n">
-        <v>2.94</v>
+        <v>1.16</v>
       </c>
       <c r="K13" t="n">
-        <v>12.62</v>
+        <v>11.83</v>
       </c>
       <c r="L13" t="n">
         <v>3</v>
       </c>
       <c r="M13" t="n">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="N13" t="n">
-        <v>227.16</v>
+        <v>449.54</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -969,325 +969,325 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" t="n">
-        <v>41.77</v>
+        <v>43.21</v>
       </c>
       <c r="B14" t="n">
-        <v>35.18</v>
+        <v>35.09</v>
       </c>
       <c r="C14" t="n">
-        <v>23.15</v>
+        <v>25.2</v>
       </c>
       <c r="D14" t="n">
-        <v>14.02</v>
+        <v>15.79</v>
       </c>
       <c r="E14" t="n">
-        <v>8.709999999999999</v>
+        <v>7.28</v>
       </c>
       <c r="F14" t="n">
-        <v>6.789999999999999</v>
+        <v>5.42</v>
       </c>
       <c r="G14" t="n">
-        <v>5.129999999999999</v>
+        <v>4.81</v>
       </c>
       <c r="H14" t="n">
-        <v>4.279999999999999</v>
+        <v>4.17</v>
       </c>
       <c r="I14" t="n">
-        <v>2.4</v>
+        <v>2.87</v>
       </c>
       <c r="K14" t="n">
-        <v>14.03</v>
+        <v>15.8</v>
       </c>
       <c r="L14" t="n">
         <v>3</v>
       </c>
       <c r="M14" t="n">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="N14" t="n">
-        <v>645.38</v>
+        <v>252.8</v>
       </c>
       <c r="O14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>322.69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="n">
-        <v>32.47</v>
+        <v>37.94</v>
       </c>
       <c r="B15" t="n">
-        <v>24.61</v>
+        <v>32.59</v>
       </c>
       <c r="C15" t="n">
-        <v>20.62</v>
+        <v>22.66</v>
       </c>
       <c r="D15" t="n">
-        <v>10.83</v>
+        <v>16.16</v>
       </c>
       <c r="E15" t="n">
-        <v>6.720000000000001</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="F15" t="n">
-        <v>5.66</v>
+        <v>7.720000000000001</v>
       </c>
       <c r="G15" t="n">
-        <v>4.5</v>
+        <v>5.970000000000001</v>
       </c>
       <c r="H15" t="n">
-        <v>3.17</v>
+        <v>4.48</v>
       </c>
       <c r="I15" t="n">
-        <v>1.87</v>
+        <v>2.64</v>
       </c>
       <c r="K15" t="n">
-        <v>10.84</v>
+        <v>16.17</v>
       </c>
       <c r="L15" t="n">
         <v>3</v>
       </c>
       <c r="M15" t="n">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="N15" t="n">
-        <v>390.2400000000001</v>
+        <v>355.74</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>355.74</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" t="n">
-        <v>33.26</v>
+        <v>33.25</v>
       </c>
       <c r="B16" t="n">
-        <v>29.46</v>
+        <v>26.53</v>
       </c>
       <c r="C16" t="n">
-        <v>23.61</v>
+        <v>21.16</v>
       </c>
       <c r="D16" t="n">
-        <v>13.76</v>
+        <v>13.71</v>
       </c>
       <c r="E16" t="n">
-        <v>8.540000000000001</v>
+        <v>7.649999999999999</v>
       </c>
       <c r="F16" t="n">
-        <v>7.56</v>
+        <v>6.39</v>
       </c>
       <c r="G16" t="n">
-        <v>6.5</v>
+        <v>5.14</v>
       </c>
       <c r="H16" t="n">
-        <v>4.57</v>
+        <v>3.39</v>
       </c>
       <c r="I16" t="n">
-        <v>2.68</v>
+        <v>1.88</v>
       </c>
       <c r="K16" t="n">
-        <v>13.77</v>
+        <v>13.72</v>
       </c>
       <c r="L16" t="n">
         <v>3</v>
       </c>
       <c r="M16" t="n">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="N16" t="n">
-        <v>110.16</v>
+        <v>548.8</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>274.4</v>
       </c>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" t="n">
-        <v>37.36000000000001</v>
+        <v>35.14</v>
       </c>
       <c r="B17" t="n">
-        <v>32.73</v>
+        <v>31.48</v>
       </c>
       <c r="C17" t="n">
-        <v>18.6</v>
+        <v>20.66</v>
       </c>
       <c r="D17" t="n">
-        <v>15.44</v>
+        <v>15.61</v>
       </c>
       <c r="E17" t="n">
-        <v>6.789999999999999</v>
+        <v>8.120000000000001</v>
       </c>
       <c r="F17" t="n">
-        <v>4.649999999999999</v>
+        <v>6.41</v>
       </c>
       <c r="G17" t="n">
-        <v>4.06</v>
+        <v>5.25</v>
       </c>
       <c r="H17" t="n">
-        <v>2.76</v>
+        <v>3.43</v>
       </c>
       <c r="I17" t="n">
-        <v>1.94</v>
+        <v>2.51</v>
       </c>
       <c r="K17" t="n">
-        <v>6.799999999999999</v>
+        <v>15.62</v>
       </c>
       <c r="L17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M17" t="n">
+        <v>38</v>
+      </c>
+      <c r="N17" t="n">
+        <v>593.5600000000001</v>
+      </c>
+      <c r="O17" t="n">
         <v>1</v>
       </c>
-      <c r="N17" t="n">
-        <v>6.799999999999999</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>593.5600000000001</v>
       </c>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" t="n">
-        <v>37.58</v>
+        <v>25.41</v>
       </c>
       <c r="B18" t="n">
-        <v>32.57</v>
+        <v>22.76</v>
       </c>
       <c r="C18" t="n">
-        <v>24.72</v>
+        <v>18.95</v>
       </c>
       <c r="D18" t="n">
-        <v>17.43</v>
+        <v>13.76</v>
       </c>
       <c r="E18" t="n">
-        <v>8.209999999999999</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="F18" t="n">
-        <v>6.14</v>
+        <v>6.44</v>
       </c>
       <c r="G18" t="n">
-        <v>4.85</v>
+        <v>4.48</v>
       </c>
       <c r="H18" t="n">
-        <v>3.43</v>
+        <v>3.57</v>
       </c>
       <c r="I18" t="n">
-        <v>1.65</v>
+        <v>1.59</v>
       </c>
       <c r="K18" t="n">
-        <v>8.219999999999999</v>
+        <v>18.96</v>
       </c>
       <c r="L18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M18" t="n">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="N18" t="n">
-        <v>32.88</v>
+        <v>1099.68</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>366.5600000000001</v>
       </c>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" t="n">
-        <v>31.41</v>
+        <v>34.08</v>
       </c>
       <c r="B19" t="n">
-        <v>22.39</v>
+        <v>27.01</v>
       </c>
       <c r="C19" t="n">
-        <v>16.16</v>
+        <v>17.13</v>
       </c>
       <c r="D19" t="n">
-        <v>11.86</v>
+        <v>13.38</v>
       </c>
       <c r="E19" t="n">
-        <v>6.55</v>
+        <v>7.42</v>
       </c>
       <c r="F19" t="n">
-        <v>5</v>
+        <v>5.07</v>
       </c>
       <c r="G19" t="n">
-        <v>3.52</v>
+        <v>3.34</v>
       </c>
       <c r="H19" t="n">
-        <v>2.49</v>
+        <v>2.65</v>
       </c>
       <c r="I19" t="n">
-        <v>1.1</v>
+        <v>2.14</v>
       </c>
       <c r="K19" t="n">
-        <v>11.87</v>
+        <v>17.14</v>
       </c>
       <c r="L19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M19" t="n">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="N19" t="n">
-        <v>759.6799999999999</v>
+        <v>514.2</v>
       </c>
       <c r="O19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>253.2266666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" t="n">
-        <v>29.97</v>
+        <v>21.33</v>
       </c>
       <c r="B20" t="n">
-        <v>25.62</v>
+        <v>18.25</v>
       </c>
       <c r="C20" t="n">
-        <v>23.23</v>
+        <v>15.85</v>
       </c>
       <c r="D20" t="n">
-        <v>13.95</v>
+        <v>13.52</v>
       </c>
       <c r="E20" t="n">
-        <v>6.42</v>
+        <v>6.41</v>
       </c>
       <c r="F20" t="n">
-        <v>4.06</v>
+        <v>5.35</v>
       </c>
       <c r="G20" t="n">
-        <v>3.47</v>
+        <v>3.94</v>
       </c>
       <c r="H20" t="n">
-        <v>2.71</v>
+        <v>2.98</v>
       </c>
       <c r="I20" t="n">
-        <v>1.08</v>
+        <v>1.64</v>
       </c>
       <c r="K20" t="n">
-        <v>13.96</v>
+        <v>18.26</v>
       </c>
       <c r="L20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M20" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="N20" t="n">
-        <v>209.4</v>
+        <v>164.34</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -1298,43 +1298,43 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" t="n">
-        <v>35.96</v>
+        <v>34.13</v>
       </c>
       <c r="B21" t="n">
-        <v>30.15</v>
+        <v>24.29</v>
       </c>
       <c r="C21" t="n">
-        <v>24.34</v>
+        <v>19.66</v>
       </c>
       <c r="D21" t="n">
-        <v>15.03</v>
+        <v>14.68</v>
       </c>
       <c r="E21" t="n">
-        <v>7.850000000000001</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="F21" t="n">
-        <v>6.69</v>
+        <v>5.42</v>
       </c>
       <c r="G21" t="n">
-        <v>4.74</v>
+        <v>3.59</v>
       </c>
       <c r="H21" t="n">
-        <v>3.47</v>
+        <v>2.49</v>
       </c>
       <c r="I21" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="K21" t="n">
-        <v>7.86</v>
+        <v>19.67</v>
       </c>
       <c r="L21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M21" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="N21" t="n">
-        <v>15.72</v>
+        <v>314.72</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -1345,278 +1345,278 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" t="n">
-        <v>26.49</v>
+        <v>33.02</v>
       </c>
       <c r="B22" t="n">
-        <v>22</v>
+        <v>28.37</v>
       </c>
       <c r="C22" t="n">
-        <v>15.87</v>
+        <v>16.73</v>
       </c>
       <c r="D22" t="n">
-        <v>13.78</v>
+        <v>12.4</v>
       </c>
       <c r="E22" t="n">
-        <v>5.49</v>
+        <v>6.24</v>
       </c>
       <c r="F22" t="n">
-        <v>4.98</v>
+        <v>4.95</v>
       </c>
       <c r="G22" t="n">
-        <v>3.31</v>
+        <v>3.98</v>
       </c>
       <c r="H22" t="n">
-        <v>2.43</v>
+        <v>3.09</v>
       </c>
       <c r="I22" t="n">
-        <v>1.12</v>
+        <v>2.37</v>
       </c>
       <c r="K22" t="n">
-        <v>13.79</v>
+        <v>16.74</v>
       </c>
       <c r="L22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M22" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N22" t="n">
-        <v>413.7</v>
+        <v>837.0000000000001</v>
       </c>
       <c r="O22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P22" t="n">
-        <v>413.7</v>
+        <v>418.5000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" t="n">
-        <v>42.8</v>
+        <v>38.8</v>
       </c>
       <c r="B23" t="n">
-        <v>36.09</v>
+        <v>33.64</v>
       </c>
       <c r="C23" t="n">
-        <v>21.3</v>
+        <v>23.94</v>
       </c>
       <c r="D23" t="n">
-        <v>14.39</v>
+        <v>15.81</v>
       </c>
       <c r="E23" t="n">
-        <v>6.959999999999999</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="F23" t="n">
-        <v>5.709999999999999</v>
+        <v>7.46</v>
       </c>
       <c r="G23" t="n">
-        <v>4.899999999999999</v>
+        <v>5.7</v>
       </c>
       <c r="H23" t="n">
-        <v>3.22</v>
+        <v>4.48</v>
       </c>
       <c r="I23" t="n">
-        <v>1.94</v>
+        <v>2.69</v>
       </c>
       <c r="K23" t="n">
-        <v>14.4</v>
+        <v>15.82</v>
       </c>
       <c r="L23" t="n">
         <v>3</v>
       </c>
       <c r="M23" t="n">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="N23" t="n">
-        <v>230.4</v>
+        <v>1012.48</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>1012.48</v>
       </c>
     </row>
     <row r="24" spans="1:16">
       <c r="A24" t="n">
-        <v>26.34</v>
+        <v>33.63</v>
       </c>
       <c r="B24" t="n">
-        <v>22.52</v>
+        <v>27.77</v>
       </c>
       <c r="C24" t="n">
-        <v>18.27</v>
+        <v>20.71</v>
       </c>
       <c r="D24" t="n">
-        <v>13.27</v>
+        <v>12.65</v>
       </c>
       <c r="E24" t="n">
-        <v>5.289999999999999</v>
+        <v>7.92</v>
       </c>
       <c r="F24" t="n">
-        <v>3.18</v>
+        <v>6.6</v>
       </c>
       <c r="G24" t="n">
-        <v>2.67</v>
+        <v>4.8</v>
       </c>
       <c r="H24" t="n">
-        <v>2.04</v>
+        <v>3.67</v>
       </c>
       <c r="I24" t="n">
-        <v>1.17</v>
+        <v>2.85</v>
       </c>
       <c r="K24" t="n">
-        <v>13.28</v>
+        <v>12.66</v>
       </c>
       <c r="L24" t="n">
         <v>3</v>
       </c>
       <c r="M24" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="N24" t="n">
-        <v>132.8</v>
+        <v>177.24</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>177.24</v>
       </c>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" t="n">
-        <v>36.06</v>
+        <v>42.48</v>
       </c>
       <c r="B25" t="n">
-        <v>28.95</v>
+        <v>35.04000000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>20.15</v>
+        <v>24.94</v>
       </c>
       <c r="D25" t="n">
-        <v>12.96</v>
+        <v>16.38</v>
       </c>
       <c r="E25" t="n">
-        <v>8.09</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="F25" t="n">
-        <v>7.319999999999999</v>
+        <v>6.18</v>
       </c>
       <c r="G25" t="n">
-        <v>6.47</v>
+        <v>4.359999999999999</v>
       </c>
       <c r="H25" t="n">
-        <v>4.51</v>
+        <v>3.23</v>
       </c>
       <c r="I25" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="K25" t="n">
-        <v>12.97</v>
+        <v>16.39</v>
       </c>
       <c r="L25" t="n">
         <v>3</v>
       </c>
       <c r="M25" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N25" t="n">
-        <v>181.58</v>
+        <v>327.8000000000001</v>
       </c>
       <c r="O25" t="n">
         <v>1</v>
       </c>
       <c r="P25" t="n">
-        <v>181.58</v>
+        <v>327.8000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" t="n">
-        <v>35</v>
+        <v>38.45</v>
       </c>
       <c r="B26" t="n">
-        <v>27.32</v>
+        <v>30.84</v>
       </c>
       <c r="C26" t="n">
-        <v>25.93</v>
+        <v>28.55</v>
       </c>
       <c r="D26" t="n">
-        <v>17.56</v>
+        <v>18.63</v>
       </c>
       <c r="E26" t="n">
-        <v>8.92</v>
+        <v>9.58</v>
       </c>
       <c r="F26" t="n">
-        <v>6.31</v>
+        <v>7.52</v>
       </c>
       <c r="G26" t="n">
-        <v>4.56</v>
+        <v>5.529999999999999</v>
       </c>
       <c r="H26" t="n">
-        <v>3.52</v>
+        <v>3.65</v>
       </c>
       <c r="I26" t="n">
-        <v>2.77</v>
+        <v>2.96</v>
       </c>
       <c r="K26" t="n">
-        <v>8.93</v>
+        <v>18.64</v>
       </c>
       <c r="L26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M26" t="n">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="N26" t="n">
-        <v>8.93</v>
+        <v>987.9200000000002</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>493.9600000000001</v>
       </c>
     </row>
     <row r="27" spans="1:16">
       <c r="A27" t="n">
-        <v>41.13</v>
+        <v>25.9</v>
       </c>
       <c r="B27" t="n">
-        <v>35.07</v>
+        <v>23.78</v>
       </c>
       <c r="C27" t="n">
-        <v>24.57</v>
+        <v>17.7</v>
       </c>
       <c r="D27" t="n">
-        <v>16.33</v>
+        <v>12.59</v>
       </c>
       <c r="E27" t="n">
-        <v>6.92</v>
+        <v>8.200000000000001</v>
       </c>
       <c r="F27" t="n">
-        <v>4.54</v>
+        <v>5.840000000000001</v>
       </c>
       <c r="G27" t="n">
-        <v>3.75</v>
+        <v>4.31</v>
       </c>
       <c r="H27" t="n">
-        <v>2.95</v>
+        <v>3.37</v>
       </c>
       <c r="I27" t="n">
-        <v>2.39</v>
+        <v>1.97</v>
       </c>
       <c r="K27" t="n">
-        <v>6.93</v>
+        <v>17.71</v>
       </c>
       <c r="L27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M27" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="N27" t="n">
-        <v>13.86</v>
+        <v>425.04</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -1627,43 +1627,43 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" t="n">
-        <v>22.75</v>
+        <v>38.29000000000001</v>
       </c>
       <c r="B28" t="n">
-        <v>20.48</v>
+        <v>35.55</v>
       </c>
       <c r="C28" t="n">
+        <v>24.38</v>
+      </c>
+      <c r="D28" t="n">
+        <v>17.13</v>
+      </c>
+      <c r="E28" t="n">
+        <v>8.210000000000001</v>
+      </c>
+      <c r="F28" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="G28" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="K28" t="n">
         <v>17.14</v>
       </c>
-      <c r="D28" t="n">
-        <v>12.37</v>
-      </c>
-      <c r="E28" t="n">
-        <v>6.109999999999999</v>
-      </c>
-      <c r="F28" t="n">
-        <v>4.21</v>
-      </c>
-      <c r="G28" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="H28" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="I28" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="K28" t="n">
-        <v>12.38</v>
-      </c>
       <c r="L28" t="n">
         <v>3</v>
       </c>
       <c r="M28" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N28" t="n">
-        <v>247.6</v>
+        <v>171.4</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -1674,231 +1674,231 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" t="n">
-        <v>36.98</v>
+        <v>33.89</v>
       </c>
       <c r="B29" t="n">
-        <v>31.46</v>
+        <v>31.82</v>
       </c>
       <c r="C29" t="n">
-        <v>18.46</v>
+        <v>22.83</v>
       </c>
       <c r="D29" t="n">
-        <v>11.46</v>
+        <v>13.53</v>
       </c>
       <c r="E29" t="n">
-        <v>7.369999999999999</v>
+        <v>5.319999999999999</v>
       </c>
       <c r="F29" t="n">
-        <v>4.94</v>
+        <v>4.6</v>
       </c>
       <c r="G29" t="n">
-        <v>4.02</v>
+        <v>4.05</v>
       </c>
       <c r="H29" t="n">
-        <v>3.06</v>
+        <v>2.69</v>
       </c>
       <c r="I29" t="n">
-        <v>1.63</v>
+        <v>1.88</v>
       </c>
       <c r="K29" t="n">
-        <v>11.47</v>
+        <v>13.54</v>
       </c>
       <c r="L29" t="n">
         <v>3</v>
       </c>
       <c r="M29" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N29" t="n">
-        <v>389.98</v>
+        <v>419.74</v>
       </c>
       <c r="O29" t="n">
         <v>1</v>
       </c>
       <c r="P29" t="n">
-        <v>389.98</v>
+        <v>419.74</v>
       </c>
     </row>
     <row r="30" spans="1:16">
       <c r="A30" t="n">
-        <v>29.4</v>
+        <v>36.69</v>
       </c>
       <c r="B30" t="n">
-        <v>23.24</v>
+        <v>30.49</v>
       </c>
       <c r="C30" t="n">
-        <v>17.52</v>
+        <v>23.88</v>
       </c>
       <c r="D30" t="n">
-        <v>13.72</v>
+        <v>14.42</v>
       </c>
       <c r="E30" t="n">
-        <v>8.66</v>
+        <v>6.78</v>
       </c>
       <c r="F30" t="n">
-        <v>5.96</v>
+        <v>5.33</v>
       </c>
       <c r="G30" t="n">
-        <v>4.26</v>
+        <v>4.23</v>
       </c>
       <c r="H30" t="n">
-        <v>3.66</v>
+        <v>3.53</v>
       </c>
       <c r="I30" t="n">
-        <v>2.96</v>
+        <v>2.78</v>
       </c>
       <c r="K30" t="n">
-        <v>13.73</v>
+        <v>14.43</v>
       </c>
       <c r="L30" t="n">
         <v>3</v>
       </c>
       <c r="M30" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="N30" t="n">
-        <v>384.4399999999999</v>
+        <v>216.45</v>
       </c>
       <c r="O30" t="n">
         <v>1</v>
       </c>
       <c r="P30" t="n">
-        <v>384.4399999999999</v>
+        <v>216.45</v>
       </c>
     </row>
     <row r="31" spans="1:16">
       <c r="A31" t="n">
-        <v>35.23999999999999</v>
+        <v>38.49</v>
       </c>
       <c r="B31" t="n">
-        <v>32.48</v>
+        <v>34.68</v>
       </c>
       <c r="C31" t="n">
-        <v>26.31</v>
+        <v>21.04</v>
       </c>
       <c r="D31" t="n">
-        <v>16.77</v>
+        <v>15.9</v>
       </c>
       <c r="E31" t="n">
-        <v>8.02</v>
+        <v>8.23</v>
       </c>
       <c r="F31" t="n">
-        <v>5.61</v>
+        <v>5.84</v>
       </c>
       <c r="G31" t="n">
-        <v>4.82</v>
+        <v>4.04</v>
       </c>
       <c r="H31" t="n">
-        <v>3.71</v>
+        <v>2.61</v>
       </c>
       <c r="I31" t="n">
-        <v>2.89</v>
+        <v>1.72</v>
       </c>
       <c r="K31" t="n">
-        <v>8.029999999999999</v>
+        <v>15.91</v>
       </c>
       <c r="L31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M31" t="n">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="N31" t="n">
-        <v>40.15</v>
+        <v>938.6900000000001</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>469.345</v>
       </c>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" t="n">
-        <v>35.93</v>
+        <v>21.53</v>
       </c>
       <c r="B32" t="n">
-        <v>27.53</v>
+        <v>18.87</v>
       </c>
       <c r="C32" t="n">
-        <v>21.67</v>
+        <v>14.43</v>
       </c>
       <c r="D32" t="n">
-        <v>11.87</v>
+        <v>9.93</v>
       </c>
       <c r="E32" t="n">
-        <v>6.640000000000001</v>
+        <v>5.84</v>
       </c>
       <c r="F32" t="n">
-        <v>6.07</v>
+        <v>5.21</v>
       </c>
       <c r="G32" t="n">
-        <v>5.36</v>
+        <v>4.51</v>
       </c>
       <c r="H32" t="n">
-        <v>3.52</v>
+        <v>3.89</v>
       </c>
       <c r="I32" t="n">
-        <v>2.77</v>
+        <v>1.99</v>
       </c>
       <c r="K32" t="n">
-        <v>11.88</v>
+        <v>18.88</v>
       </c>
       <c r="L32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M32" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="N32" t="n">
-        <v>427.68</v>
+        <v>56.64000000000001</v>
       </c>
       <c r="O32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>427.68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:16">
       <c r="A33" t="n">
-        <v>29.12</v>
+        <v>41.29</v>
       </c>
       <c r="B33" t="n">
-        <v>22.32</v>
+        <v>32.4</v>
       </c>
       <c r="C33" t="n">
-        <v>16.97</v>
+        <v>21.18</v>
       </c>
       <c r="D33" t="n">
-        <v>12.4</v>
+        <v>12.07</v>
       </c>
       <c r="E33" t="n">
-        <v>5.859999999999999</v>
+        <v>7.52</v>
       </c>
       <c r="F33" t="n">
-        <v>5.35</v>
+        <v>5.01</v>
       </c>
       <c r="G33" t="n">
-        <v>4</v>
+        <v>3.88</v>
       </c>
       <c r="H33" t="n">
-        <v>3.07</v>
+        <v>2.25</v>
       </c>
       <c r="I33" t="n">
-        <v>2.46</v>
+        <v>1.36</v>
       </c>
       <c r="K33" t="n">
-        <v>12.41</v>
+        <v>12.08</v>
       </c>
       <c r="L33" t="n">
         <v>3</v>
       </c>
       <c r="M33" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="N33" t="n">
-        <v>136.51</v>
+        <v>338.24</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -1909,372 +1909,372 @@
     </row>
     <row r="34" spans="1:16">
       <c r="A34" t="n">
-        <v>37.86</v>
+        <v>40.84</v>
       </c>
       <c r="B34" t="n">
-        <v>28.13</v>
+        <v>31.05</v>
       </c>
       <c r="C34" t="n">
-        <v>20.97</v>
+        <v>21.49</v>
       </c>
       <c r="D34" t="n">
-        <v>11.57</v>
+        <v>15.84</v>
       </c>
       <c r="E34" t="n">
-        <v>7</v>
+        <v>7.15</v>
       </c>
       <c r="F34" t="n">
-        <v>5.62</v>
+        <v>6.63</v>
       </c>
       <c r="G34" t="n">
-        <v>4.54</v>
+        <v>4.92</v>
       </c>
       <c r="H34" t="n">
-        <v>3.73</v>
+        <v>3.64</v>
       </c>
       <c r="I34" t="n">
-        <v>1.91</v>
+        <v>2.42</v>
       </c>
       <c r="K34" t="n">
-        <v>11.58</v>
+        <v>15.85</v>
       </c>
       <c r="L34" t="n">
         <v>3</v>
       </c>
       <c r="M34" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N34" t="n">
-        <v>196.86</v>
+        <v>317</v>
       </c>
       <c r="O34" t="n">
         <v>1</v>
       </c>
       <c r="P34" t="n">
-        <v>196.86</v>
+        <v>317</v>
       </c>
     </row>
     <row r="35" spans="1:16">
       <c r="A35" t="n">
-        <v>36.57</v>
+        <v>30.76</v>
       </c>
       <c r="B35" t="n">
-        <v>27.24</v>
+        <v>23.79</v>
       </c>
       <c r="C35" t="n">
-        <v>21.64</v>
+        <v>18.91</v>
       </c>
       <c r="D35" t="n">
-        <v>13.89</v>
+        <v>13.81</v>
       </c>
       <c r="E35" t="n">
-        <v>7.76</v>
+        <v>8.32</v>
       </c>
       <c r="F35" t="n">
-        <v>5.27</v>
+        <v>6.77</v>
       </c>
       <c r="G35" t="n">
-        <v>4.39</v>
+        <v>4.84</v>
       </c>
       <c r="H35" t="n">
-        <v>3.11</v>
+        <v>4.3</v>
       </c>
       <c r="I35" t="n">
-        <v>1.46</v>
+        <v>2.98</v>
       </c>
       <c r="K35" t="n">
-        <v>13.9</v>
+        <v>18.92</v>
       </c>
       <c r="L35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M35" t="n">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="N35" t="n">
-        <v>514.3000000000001</v>
+        <v>1097.36</v>
       </c>
       <c r="O35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P35" t="n">
-        <v>514.3000000000001</v>
+        <v>365.7866666666667</v>
       </c>
     </row>
     <row r="36" spans="1:16">
       <c r="A36" t="n">
-        <v>32.23</v>
+        <v>28.47</v>
       </c>
       <c r="B36" t="n">
-        <v>27.79</v>
+        <v>19.92</v>
       </c>
       <c r="C36" t="n">
-        <v>20.62</v>
+        <v>17.17</v>
       </c>
       <c r="D36" t="n">
-        <v>10.77</v>
+        <v>15.15</v>
       </c>
       <c r="E36" t="n">
-        <v>6.529999999999999</v>
+        <v>5.23</v>
       </c>
       <c r="F36" t="n">
-        <v>5.55</v>
+        <v>4.16</v>
       </c>
       <c r="G36" t="n">
-        <v>3.98</v>
+        <v>3.53</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="I36" t="n">
-        <v>1.59</v>
+        <v>1.27</v>
       </c>
       <c r="K36" t="n">
-        <v>10.78</v>
+        <v>19.93</v>
       </c>
       <c r="L36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M36" t="n">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="N36" t="n">
-        <v>517.4399999999999</v>
+        <v>518.1800000000001</v>
       </c>
       <c r="O36" t="n">
         <v>1</v>
       </c>
       <c r="P36" t="n">
-        <v>517.4399999999999</v>
+        <v>518.1800000000001</v>
       </c>
     </row>
     <row r="37" spans="1:16">
       <c r="A37" t="n">
-        <v>24.83</v>
+        <v>23.63</v>
       </c>
       <c r="B37" t="n">
-        <v>21.19</v>
+        <v>21.01</v>
       </c>
       <c r="C37" t="n">
-        <v>16.08</v>
+        <v>19.68</v>
       </c>
       <c r="D37" t="n">
-        <v>13.02</v>
+        <v>13.91</v>
       </c>
       <c r="E37" t="n">
-        <v>8.74</v>
+        <v>8.25</v>
       </c>
       <c r="F37" t="n">
-        <v>7.02</v>
+        <v>5.27</v>
       </c>
       <c r="G37" t="n">
-        <v>5.31</v>
+        <v>4.359999999999999</v>
       </c>
       <c r="H37" t="n">
-        <v>3.89</v>
+        <v>2.61</v>
       </c>
       <c r="I37" t="n">
-        <v>2.68</v>
+        <v>1.97</v>
       </c>
       <c r="K37" t="n">
-        <v>13.03</v>
+        <v>19.69</v>
       </c>
       <c r="L37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M37" t="n">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="N37" t="n">
-        <v>65.14999999999999</v>
+        <v>1338.92</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>446.3066666666667</v>
       </c>
     </row>
     <row r="38" spans="1:16">
       <c r="A38" t="n">
-        <v>30.83</v>
+        <v>33.7</v>
       </c>
       <c r="B38" t="n">
-        <v>22.75</v>
+        <v>26.93</v>
       </c>
       <c r="C38" t="n">
-        <v>19.77</v>
+        <v>21.95</v>
       </c>
       <c r="D38" t="n">
-        <v>12.7</v>
+        <v>17.57</v>
       </c>
       <c r="E38" t="n">
-        <v>5.859999999999999</v>
+        <v>7.79</v>
       </c>
       <c r="F38" t="n">
-        <v>4.68</v>
+        <v>5.34</v>
       </c>
       <c r="G38" t="n">
-        <v>4</v>
+        <v>4.49</v>
       </c>
       <c r="H38" t="n">
-        <v>2.45</v>
+        <v>3.49</v>
       </c>
       <c r="I38" t="n">
-        <v>1.88</v>
+        <v>1.64</v>
       </c>
       <c r="K38" t="n">
-        <v>12.71</v>
+        <v>17.58</v>
       </c>
       <c r="L38" t="n">
         <v>3</v>
       </c>
       <c r="M38" t="n">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="N38" t="n">
-        <v>216.07</v>
+        <v>861.4200000000001</v>
       </c>
       <c r="O38" t="n">
         <v>1</v>
       </c>
       <c r="P38" t="n">
-        <v>216.07</v>
+        <v>861.4200000000001</v>
       </c>
     </row>
     <row r="39" spans="1:16">
       <c r="A39" t="n">
-        <v>35.89</v>
+        <v>30.28</v>
       </c>
       <c r="B39" t="n">
-        <v>29.39</v>
+        <v>24.34</v>
       </c>
       <c r="C39" t="n">
-        <v>24.34</v>
+        <v>17.86</v>
       </c>
       <c r="D39" t="n">
-        <v>17</v>
+        <v>14.55</v>
       </c>
       <c r="E39" t="n">
-        <v>8.52</v>
+        <v>7.14</v>
       </c>
       <c r="F39" t="n">
-        <v>6.47</v>
+        <v>6.05</v>
       </c>
       <c r="G39" t="n">
-        <v>4.63</v>
+        <v>4.14</v>
       </c>
       <c r="H39" t="n">
-        <v>3.71</v>
+        <v>2.75</v>
       </c>
       <c r="I39" t="n">
-        <v>2.78</v>
+        <v>2.16</v>
       </c>
       <c r="K39" t="n">
-        <v>8.529999999999999</v>
+        <v>17.87</v>
       </c>
       <c r="L39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M39" t="n">
+        <v>43</v>
+      </c>
+      <c r="N39" t="n">
+        <v>768.4100000000001</v>
+      </c>
+      <c r="O39" t="n">
         <v>1</v>
       </c>
-      <c r="N39" t="n">
-        <v>8.529999999999999</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>768.4100000000001</v>
       </c>
     </row>
     <row r="40" spans="1:16">
       <c r="A40" t="n">
-        <v>29.19</v>
+        <v>25.67</v>
       </c>
       <c r="B40" t="n">
-        <v>22.55</v>
+        <v>20.15</v>
       </c>
       <c r="C40" t="n">
-        <v>18.5</v>
+        <v>18.61</v>
       </c>
       <c r="D40" t="n">
-        <v>13.55</v>
+        <v>16.51</v>
       </c>
       <c r="E40" t="n">
-        <v>6.9</v>
+        <v>8.77</v>
       </c>
       <c r="F40" t="n">
-        <v>4.58</v>
+        <v>5.8</v>
       </c>
       <c r="G40" t="n">
-        <v>3.74</v>
+        <v>5.25</v>
       </c>
       <c r="H40" t="n">
-        <v>2.82</v>
+        <v>4.18</v>
       </c>
       <c r="I40" t="n">
-        <v>1.46</v>
+        <v>2.58</v>
       </c>
       <c r="K40" t="n">
-        <v>13.56</v>
+        <v>18.62</v>
       </c>
       <c r="L40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M40" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="N40" t="n">
-        <v>81.36</v>
+        <v>409.64</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>409.64</v>
       </c>
     </row>
     <row r="41" spans="1:16">
       <c r="A41" t="n">
-        <v>46.54</v>
+        <v>31.21</v>
       </c>
       <c r="B41" t="n">
-        <v>38.12</v>
+        <v>24.03</v>
       </c>
       <c r="C41" t="n">
-        <v>23.98</v>
+        <v>19.53</v>
       </c>
       <c r="D41" t="n">
-        <v>16.67</v>
+        <v>11.89</v>
       </c>
       <c r="E41" t="n">
-        <v>7.72</v>
+        <v>6.94</v>
       </c>
       <c r="F41" t="n">
-        <v>5.8</v>
+        <v>6.23</v>
       </c>
       <c r="G41" t="n">
-        <v>4.92</v>
+        <v>5.619999999999999</v>
       </c>
       <c r="H41" t="n">
-        <v>3.86</v>
+        <v>3.93</v>
       </c>
       <c r="I41" t="n">
-        <v>1.96</v>
+        <v>2.48</v>
       </c>
       <c r="K41" t="n">
-        <v>7.73</v>
+        <v>19.54</v>
       </c>
       <c r="L41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N41" t="n">
-        <v>23.19</v>
+        <v>39.08000000000001</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -2285,43 +2285,43 @@
     </row>
     <row r="42" spans="1:16">
       <c r="A42" t="n">
-        <v>37.76</v>
+        <v>37.95999999999999</v>
       </c>
       <c r="B42" t="n">
-        <v>28.43</v>
+        <v>28.32</v>
       </c>
       <c r="C42" t="n">
-        <v>26.89</v>
+        <v>16.55</v>
       </c>
       <c r="D42" t="n">
-        <v>17.29</v>
+        <v>11.08</v>
       </c>
       <c r="E42" t="n">
-        <v>7.919999999999999</v>
+        <v>6.44</v>
       </c>
       <c r="F42" t="n">
-        <v>6.119999999999999</v>
+        <v>5.75</v>
       </c>
       <c r="G42" t="n">
-        <v>5.529999999999999</v>
+        <v>4.3</v>
       </c>
       <c r="H42" t="n">
-        <v>4.27</v>
+        <v>2.94</v>
       </c>
       <c r="I42" t="n">
-        <v>2.38</v>
+        <v>1.18</v>
       </c>
       <c r="K42" t="n">
-        <v>7.929999999999999</v>
+        <v>16.56</v>
       </c>
       <c r="L42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M42" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N42" t="n">
-        <v>47.57999999999999</v>
+        <v>33.12</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -2332,278 +2332,278 @@
     </row>
     <row r="43" spans="1:16">
       <c r="A43" t="n">
-        <v>31.23</v>
+        <v>33.14</v>
       </c>
       <c r="B43" t="n">
-        <v>21.3</v>
+        <v>29.29</v>
       </c>
       <c r="C43" t="n">
-        <v>19.64</v>
+        <v>19.34</v>
       </c>
       <c r="D43" t="n">
-        <v>13.48</v>
+        <v>17.07</v>
       </c>
       <c r="E43" t="n">
-        <v>9.379999999999999</v>
+        <v>7.83</v>
       </c>
       <c r="F43" t="n">
-        <v>6.87</v>
+        <v>6.1</v>
       </c>
       <c r="G43" t="n">
-        <v>5.19</v>
+        <v>5.29</v>
       </c>
       <c r="H43" t="n">
-        <v>3.76</v>
+        <v>3.41</v>
       </c>
       <c r="I43" t="n">
-        <v>2.16</v>
+        <v>2.41</v>
       </c>
       <c r="K43" t="n">
-        <v>13.49</v>
+        <v>19.35</v>
       </c>
       <c r="L43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M43" t="n">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="N43" t="n">
-        <v>364.23</v>
+        <v>174.15</v>
       </c>
       <c r="O43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>364.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:16">
       <c r="A44" t="n">
-        <v>40.45</v>
+        <v>40.36</v>
       </c>
       <c r="B44" t="n">
-        <v>31.81</v>
+        <v>35.46</v>
       </c>
       <c r="C44" t="n">
-        <v>19.64</v>
+        <v>20.91</v>
       </c>
       <c r="D44" t="n">
-        <v>16.47</v>
+        <v>18.13</v>
       </c>
       <c r="E44" t="n">
-        <v>9.699999999999999</v>
+        <v>8.959999999999999</v>
       </c>
       <c r="F44" t="n">
-        <v>6.71</v>
+        <v>5.98</v>
       </c>
       <c r="G44" t="n">
-        <v>5.58</v>
+        <v>4.06</v>
       </c>
       <c r="H44" t="n">
-        <v>3.84</v>
+        <v>2.97</v>
       </c>
       <c r="I44" t="n">
-        <v>2.34</v>
+        <v>1.97</v>
       </c>
       <c r="K44" t="n">
-        <v>9.709999999999999</v>
+        <v>18.14</v>
       </c>
       <c r="L44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M44" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="N44" t="n">
-        <v>19.42</v>
+        <v>417.22</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>417.22</v>
       </c>
     </row>
     <row r="45" spans="1:16">
       <c r="A45" t="n">
-        <v>32.13</v>
+        <v>38.88</v>
       </c>
       <c r="B45" t="n">
-        <v>24.92</v>
+        <v>34.24</v>
       </c>
       <c r="C45" t="n">
-        <v>21.91</v>
+        <v>22.64</v>
       </c>
       <c r="D45" t="n">
-        <v>14.66</v>
+        <v>16.4</v>
       </c>
       <c r="E45" t="n">
-        <v>6.140000000000001</v>
+        <v>7.16</v>
       </c>
       <c r="F45" t="n">
-        <v>4.960000000000001</v>
+        <v>5.81</v>
       </c>
       <c r="G45" t="n">
-        <v>4.19</v>
+        <v>4.62</v>
       </c>
       <c r="H45" t="n">
-        <v>3.56</v>
+        <v>3.98</v>
       </c>
       <c r="I45" t="n">
-        <v>2.74</v>
+        <v>2.39</v>
       </c>
       <c r="K45" t="n">
-        <v>14.67</v>
+        <v>16.41</v>
       </c>
       <c r="L45" t="n">
         <v>3</v>
       </c>
       <c r="M45" t="n">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="N45" t="n">
-        <v>718.83</v>
+        <v>475.89</v>
       </c>
       <c r="O45" t="n">
         <v>1</v>
       </c>
       <c r="P45" t="n">
-        <v>718.83</v>
+        <v>475.89</v>
       </c>
     </row>
     <row r="46" spans="1:16">
       <c r="A46" t="n">
-        <v>43.48</v>
+        <v>40.23999999999999</v>
       </c>
       <c r="B46" t="n">
-        <v>33.63</v>
+        <v>30.85</v>
       </c>
       <c r="C46" t="n">
-        <v>24</v>
+        <v>19.49</v>
       </c>
       <c r="D46" t="n">
-        <v>17.46</v>
+        <v>16.44</v>
       </c>
       <c r="E46" t="n">
-        <v>8.470000000000001</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="F46" t="n">
-        <v>5.790000000000001</v>
+        <v>6.87</v>
       </c>
       <c r="G46" t="n">
-        <v>4.640000000000001</v>
+        <v>6.3</v>
       </c>
       <c r="H46" t="n">
-        <v>3.33</v>
+        <v>4.34</v>
       </c>
       <c r="I46" t="n">
-        <v>2.62</v>
+        <v>2.69</v>
       </c>
       <c r="K46" t="n">
-        <v>8.48</v>
+        <v>19.5</v>
       </c>
       <c r="L46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M46" t="n">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="N46" t="n">
-        <v>50.88</v>
+        <v>1209</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="47" spans="1:16">
       <c r="A47" t="n">
-        <v>35.08</v>
+        <v>33.72000000000001</v>
       </c>
       <c r="B47" t="n">
-        <v>31.33</v>
+        <v>30.82</v>
       </c>
       <c r="C47" t="n">
-        <v>17.61</v>
+        <v>25.13</v>
       </c>
       <c r="D47" t="n">
-        <v>14.8</v>
+        <v>17.85</v>
       </c>
       <c r="E47" t="n">
-        <v>6.970000000000001</v>
+        <v>8.879999999999999</v>
       </c>
       <c r="F47" t="n">
-        <v>5.49</v>
+        <v>6.75</v>
       </c>
       <c r="G47" t="n">
-        <v>3.72</v>
+        <v>5.04</v>
       </c>
       <c r="H47" t="n">
-        <v>2.34</v>
+        <v>3.08</v>
       </c>
       <c r="I47" t="n">
-        <v>1.31</v>
+        <v>2.18</v>
       </c>
       <c r="K47" t="n">
-        <v>14.81</v>
+        <v>17.86</v>
       </c>
       <c r="L47" t="n">
         <v>3</v>
       </c>
       <c r="M47" t="n">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="N47" t="n">
-        <v>547.97</v>
+        <v>53.58000000000001</v>
       </c>
       <c r="O47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>547.97</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:16">
       <c r="A48" t="n">
-        <v>30.91999999999999</v>
+        <v>37.95</v>
       </c>
       <c r="B48" t="n">
-        <v>28.84</v>
+        <v>33.21</v>
       </c>
       <c r="C48" t="n">
-        <v>22.33</v>
+        <v>23.43</v>
       </c>
       <c r="D48" t="n">
-        <v>13.2</v>
+        <v>14.88</v>
       </c>
       <c r="E48" t="n">
-        <v>7.9</v>
+        <v>7.31</v>
       </c>
       <c r="F48" t="n">
-        <v>5.42</v>
+        <v>4.74</v>
       </c>
       <c r="G48" t="n">
-        <v>3.82</v>
+        <v>3.32</v>
       </c>
       <c r="H48" t="n">
-        <v>2.99</v>
+        <v>1.67</v>
       </c>
       <c r="I48" t="n">
-        <v>1.39</v>
+        <v>1.11</v>
       </c>
       <c r="K48" t="n">
-        <v>13.21</v>
+        <v>14.89</v>
       </c>
       <c r="L48" t="n">
         <v>3</v>
       </c>
       <c r="M48" t="n">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="N48" t="n">
-        <v>303.83</v>
+        <v>670.0500000000001</v>
       </c>
       <c r="O48" t="n">
         <v>0</v>
@@ -2614,37 +2614,37 @@
     </row>
     <row r="49" spans="1:16">
       <c r="A49" t="n">
-        <v>35.1</v>
+        <v>29.62</v>
       </c>
       <c r="B49" t="n">
-        <v>30.17</v>
+        <v>26.58</v>
       </c>
       <c r="C49" t="n">
-        <v>19.99</v>
+        <v>17.91</v>
       </c>
       <c r="D49" t="n">
-        <v>12.34</v>
+        <v>15.83</v>
       </c>
       <c r="E49" t="n">
-        <v>6.53</v>
+        <v>5.890000000000001</v>
       </c>
       <c r="F49" t="n">
-        <v>4.4</v>
+        <v>3.29</v>
       </c>
       <c r="G49" t="n">
-        <v>2.85</v>
+        <v>2.71</v>
       </c>
       <c r="H49" t="n">
-        <v>2.16</v>
+        <v>1.92</v>
       </c>
       <c r="I49" t="n">
-        <v>1.24</v>
+        <v>1.37</v>
       </c>
       <c r="K49" t="n">
-        <v>12.35</v>
+        <v>17.92</v>
       </c>
       <c r="L49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M49" t="n">
         <v>0</v>
@@ -2661,7 +2661,7 @@
     </row>
     <row r="50" spans="1:16">
       <c r="O50" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/sample1.xlsx
+++ b/sample1.xlsx
@@ -358,24 +358,24 @@
   <sheetData>
     <row r="1" spans="1:34">
       <c r="AF1" t="n">
-        <v>5595267.780000002</v>
+        <v>253625.25</v>
       </c>
       <c r="AG1" t="n">
-        <v>10341</v>
+        <v>353</v>
       </c>
       <c r="AH1" t="n">
-        <v>541.0760835509141</v>
+        <v>718.4851274787536</v>
       </c>
     </row>
     <row r="2" spans="1:34">
       <c r="AF2" t="n">
-        <v>10321883.26</v>
+        <v>278826.57</v>
       </c>
       <c r="AG2" t="n">
-        <v>11262</v>
+        <v>372</v>
       </c>
       <c r="AH2" t="n">
-        <v>916.5231095720119</v>
+        <v>749.5337903225807</v>
       </c>
     </row>
   </sheetData>
